--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abram\Documents\IT\Major Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DF75C-FC97-4247-ABC5-27B5E7429E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229F3BB-0EBB-4FAF-996E-3AB7CE34017B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{780689CF-DA41-4316-875C-CFAA2396AD8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>is Due Date.</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Week:</t>
   </si>
   <si>
-    <t>Title &amp; Contents Pages</t>
-  </si>
-  <si>
-    <t>Statement Proposed Project</t>
-  </si>
-  <si>
     <t>IPO Diagrams</t>
   </si>
   <si>
@@ -78,15 +72,6 @@
     <t>Testing Documentation</t>
   </si>
   <si>
-    <t>Main Menu</t>
-  </si>
-  <si>
-    <t>Actual Game</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Term 4 2020</t>
   </si>
   <si>
@@ -115,6 +100,18 @@
   </si>
   <si>
     <t>Term 2 2021</t>
+  </si>
+  <si>
+    <t>System Flowchart</t>
+  </si>
+  <si>
+    <t>Defining and Understanding the Problem</t>
+  </si>
+  <si>
+    <t>Concept Prototype</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
   </si>
 </sst>
 </file>
@@ -348,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -361,7 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -385,69 +381,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -455,33 +394,109 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0890D08A-E8D4-4A60-BC27-76697907F608}">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,44 +824,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -906,8 +921,8 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="D8" s="37" t="s">
-        <v>23</v>
+      <c r="D8" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -925,708 +940,719 @@
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
-      <c r="U8" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
+      <c r="U8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="38"/>
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="38"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
       <c r="AJ8" s="38"/>
       <c r="AK8" s="39"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="12">
+      <c r="B10" s="49"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>8</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>9</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>10</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="13">
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="12">
         <v>1</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>2</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>3</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>4</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <v>5</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="16">
         <v>6</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>7</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="12">
         <v>8</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="12">
         <v>9</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="16">
         <v>10</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="14">
         <v>10</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="15">
         <v>1</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="16">
         <v>2</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="16">
         <v>3</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="16">
         <v>4</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AD10" s="16">
         <v>5</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="16">
         <v>6</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="16">
         <v>7</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AG10" s="16">
         <v>8</v>
       </c>
-      <c r="AH10" s="17">
+      <c r="AH10" s="16">
         <v>9</v>
       </c>
-      <c r="AI10" s="15">
+      <c r="AI10" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="23"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="35"/>
     </row>
     <row r="12" spans="1:37" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="23"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="26"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="35"/>
+    </row>
+    <row r="13" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="58"/>
       <c r="D13" s="2"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="52"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="28"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="28"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="28"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="2"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="52"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="52"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="8"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="52"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="28"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="26"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="61"/>
       <c r="D17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="52"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="28"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="52"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="28"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-      <c r="I19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="52"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="28"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="I20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="52"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="28"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="53"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="33"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="53"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="52"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="26"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="33"/>
+    </row>
+    <row r="23" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="28"/>
+    </row>
+    <row r="24" spans="1:35" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="58"/>
       <c r="D24" s="2"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="52"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="28"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="52"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="28"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="58"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="30"/>
+    </row>
+    <row r="26" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="57"/>
+      <c r="D26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A27" s="57"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A28" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="Z11:AD12"/>
-    <mergeCell ref="Z21:AD22"/>
-    <mergeCell ref="AE11:AI12"/>
-    <mergeCell ref="AE21:AI22"/>
-    <mergeCell ref="U8:AK8"/>
-    <mergeCell ref="Z9:AI9"/>
-    <mergeCell ref="O9:Y9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="D9:H9"/>
+  <mergeCells count="37">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="O22:T23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A13:A21"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A1:P1"/>
@@ -1637,24 +1663,16 @@
     <mergeCell ref="D11:H12"/>
     <mergeCell ref="I11:N12"/>
     <mergeCell ref="O11:T12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A21:C22"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="O21:T22"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="U8:AK8"/>
+    <mergeCell ref="Z9:AI9"/>
+    <mergeCell ref="O9:Y9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="U21:Y22"/>
+    <mergeCell ref="Z11:AD12"/>
+    <mergeCell ref="Z21:AD22"/>
+    <mergeCell ref="AE11:AI12"/>
+    <mergeCell ref="AE21:AI22"/>
     <mergeCell ref="U11:Y12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
